--- a/计组课设苑宗鹤.xlsx
+++ b/计组课设苑宗鹤.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\quartus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\asamplecpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68AF349-44F0-4855-AF3A-FDB148F33A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D738303E-F4DD-419D-9220-4D134442CCBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13410" yWindow="3105" windowWidth="19185" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
   <si>
     <t>r1 3bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
   </si>
   <si>
     <t>addi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>op 6bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -812,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -829,10 +825,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -846,18 +842,18 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -871,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -881,10 +877,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -894,10 +890,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -907,7 +903,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -918,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -929,540 +925,522 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" t="s">
-        <v>39</v>
+      <c r="E12" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
+      <c r="H19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21">
-        <v>6020</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>94</v>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" t="s">
+        <v>95</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>95</v>
+      <c r="G24" t="s">
+        <v>96</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" t="s">
-        <v>96</v>
-      </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G26" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="1"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F30" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
       <c r="B33" s="1"/>
-      <c r="F33" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
+      <c r="F35" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="1">
+        <v>11010</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>15</v>
+      <c r="A37" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="1">
-        <v>11010</v>
-      </c>
-      <c r="C38" t="s">
-        <v>61</v>
+        <v>89</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" t="s">
-        <v>99</v>
-      </c>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" t="s">
-        <v>100</v>
-      </c>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B41" s="1"/>
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B42" s="1"/>
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>105</v>
-      </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
       <c r="B53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
